--- a/Paperwork/sprint-backlog.xlsx
+++ b/Paperwork/sprint-backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronsc_000\SkyDrive\AC41004 Team Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kurty\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="643"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="643" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="UserStories" sheetId="6" r:id="rId5"/>
     <sheet name="Configuration Details" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162912"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="135">
   <si>
     <t>ID</t>
   </si>
@@ -56,24 +56,15 @@
     <t>Administrator</t>
   </si>
   <si>
-    <t>Be able to add items to the System</t>
-  </si>
-  <si>
     <t>users can update their app to incorporate the new items</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Be able to delete items from the System</t>
-  </si>
-  <si>
     <t>users can update their app to delete obsolete or faulty items</t>
   </si>
   <si>
-    <t>Be able to edit content in the System</t>
-  </si>
-  <si>
     <t>users can update their app to include changes in knowledge</t>
   </si>
   <si>
@@ -399,6 +390,45 @@
   </si>
   <si>
     <t>Ron Schoenberg</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Be able to edit a problem in the System</t>
+  </si>
+  <si>
+    <t>Be able to delete a problem from the System</t>
+  </si>
+  <si>
+    <t>Be able to add a new problem to the System</t>
+  </si>
+  <si>
+    <t>Be able to add a new symptom to the system</t>
+  </si>
+  <si>
+    <t>users can diagnose their current problem faster</t>
+  </si>
+  <si>
+    <t>Be able to delete a symtom from the system</t>
+  </si>
+  <si>
+    <t>users can update there app to delete obsolete or faulty items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be able to edit a symptom on the system </t>
+  </si>
+  <si>
+    <t>be able to create a functional relational database</t>
+  </si>
+  <si>
+    <t>I can store necessary data used for the app</t>
+  </si>
+  <si>
+    <t>RS,SL</t>
+  </si>
+  <si>
+    <t>RS,SL,KM,TB</t>
   </si>
 </sst>
 </file>
@@ -409,7 +439,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -728,25 +758,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -832,6 +844,24 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,10 +906,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1158,13 +1188,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="3" max="3" width="45.5703125" customWidth="1"/>
@@ -1175,7 +1205,7 @@
     <col min="9" max="9" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="31.5">
+    <row r="1" spans="1:22" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="25.5">
+    <row r="2" spans="1:22" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1212,10 +1242,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="11">
         <v>3</v>
@@ -1227,11 +1257,11 @@
         <v>100</v>
       </c>
       <c r="H2" s="12">
-        <f>F2*G2</f>
+        <f t="shared" ref="H2:H15" si="0">F2*G2</f>
         <v>100</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1247,7 +1277,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="25.5">
+    <row r="3" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1255,10 +1285,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="11">
         <v>3</v>
@@ -1270,11 +1300,11 @@
         <v>70</v>
       </c>
       <c r="H3" s="12">
-        <f>F3*G3</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="1"/>
@@ -1290,7 +1320,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="25.5">
+    <row r="4" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1298,10 +1328,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -1315,7 +1345,7 @@
         <v>210</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="1"/>
@@ -1331,32 +1361,29 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="38.25">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
+    <row r="5" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>18</v>
+      <c r="C5" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="11">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H5" s="12">
-        <f>F5*G5</f>
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="1"/>
@@ -1372,32 +1399,29 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="25.5">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
+    <row r="6" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
       <c r="B6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>129</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
         <v>1</v>
       </c>
       <c r="G6" s="11">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H6" s="12">
-        <f>F6*G6</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="1"/>
@@ -1413,73 +1437,55 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" ht="25.5">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
+    <row r="7" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="11">
         <v>1</v>
       </c>
       <c r="G7" s="11">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H7" s="12">
-        <f>F7*G7</f>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" ht="25.5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="11">
         <v>100</v>
       </c>
       <c r="H8" s="12">
-        <f>F8*G8</f>
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="1"/>
@@ -1495,32 +1501,32 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" ht="25.5">
+    <row r="9" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H9" s="12">
-        <f>F9*G9</f>
-        <v>400</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="1"/>
@@ -1536,32 +1542,32 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="38.25">
+    <row r="10" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G10" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H10" s="12">
-        <f>F10*G10</f>
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="1"/>
@@ -1577,32 +1583,32 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:22" ht="38.25">
+    <row r="11" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2">
-        <v>4</v>
-      </c>
-      <c r="G11" s="2">
-        <v>150</v>
+        <v>7</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
+        <v>3</v>
+      </c>
+      <c r="G11" s="11">
+        <v>100</v>
       </c>
       <c r="H11" s="12">
-        <f>F11*G11</f>
-        <v>600</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="1"/>
@@ -1618,18 +1624,33 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
+        <v>8</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11">
+        <v>4</v>
+      </c>
+      <c r="G12" s="11">
+        <v>100</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
       <c r="J12" s="14"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1644,11 +1665,33 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="I13" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
+        <v>4</v>
+      </c>
+      <c r="G13" s="11">
+        <v>50</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J13" s="14"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1663,18 +1706,33 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>150</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J14" s="14"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1689,18 +1747,33 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="2">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2">
+        <v>150</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="J15" s="14"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1715,17 +1788,10 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
+        <v>12</v>
+      </c>
       <c r="I16" s="13"/>
       <c r="J16" s="14"/>
       <c r="K16" s="1"/>
@@ -1741,16 +1807,16 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="12"/>
       <c r="I17" s="13"/>
       <c r="J17" s="14"/>
@@ -1767,17 +1833,19 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="1"/>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>14</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1791,17 +1859,19 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>15</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1815,17 +1885,19 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1839,16 +1911,16 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1863,7 +1935,7 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1871,7 +1943,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1887,7 +1959,7 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1911,7 +1983,7 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1935,7 +2007,7 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1959,7 +2031,7 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1983,7 +2055,7 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2007,7 +2079,7 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2031,7 +2103,7 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2055,7 +2127,7 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2079,7 +2151,7 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2103,7 +2175,7 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2127,7 +2199,7 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2151,7 +2223,7 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2175,7 +2247,7 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2199,7 +2271,7 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2223,7 +2295,7 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2247,7 +2319,7 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2271,7 +2343,7 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2295,7 +2367,7 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2319,7 +2391,7 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2343,7 +2415,7 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2367,7 +2439,7 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2391,7 +2463,7 @@
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2415,7 +2487,7 @@
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2439,7 +2511,7 @@
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2463,7 +2535,7 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2487,7 +2559,7 @@
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2511,7 +2583,7 @@
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2535,7 +2607,7 @@
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2559,7 +2631,7 @@
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2583,7 +2655,7 @@
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2607,7 +2679,7 @@
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2631,7 +2703,7 @@
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2655,7 +2727,7 @@
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2679,7 +2751,7 @@
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2703,7 +2775,7 @@
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2727,7 +2799,7 @@
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2751,7 +2823,7 @@
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2775,7 +2847,7 @@
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2799,7 +2871,7 @@
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2823,7 +2895,7 @@
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2847,7 +2919,7 @@
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2871,7 +2943,7 @@
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2895,7 +2967,7 @@
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2919,7 +2991,7 @@
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2943,7 +3015,7 @@
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2967,7 +3039,7 @@
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2991,7 +3063,7 @@
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3015,7 +3087,7 @@
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3039,7 +3111,7 @@
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3063,7 +3135,7 @@
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3087,7 +3159,7 @@
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3111,7 +3183,7 @@
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3135,7 +3207,7 @@
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3159,7 +3231,7 @@
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3183,7 +3255,7 @@
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3207,7 +3279,7 @@
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3231,7 +3303,7 @@
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3255,7 +3327,7 @@
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3279,7 +3351,7 @@
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3303,7 +3375,7 @@
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3327,7 +3399,7 @@
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3351,7 +3423,7 @@
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3375,7 +3447,7 @@
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3399,7 +3471,7 @@
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3423,7 +3495,7 @@
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3447,7 +3519,7 @@
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3471,7 +3543,7 @@
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3495,7 +3567,7 @@
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3519,7 +3591,7 @@
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3543,7 +3615,7 @@
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3567,7 +3639,7 @@
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3591,7 +3663,7 @@
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3615,7 +3687,7 @@
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3639,7 +3711,7 @@
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3663,7 +3735,7 @@
       <c r="U96" s="1"/>
       <c r="V96" s="1"/>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3687,7 +3759,7 @@
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3711,7 +3783,7 @@
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3735,7 +3807,7 @@
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3759,7 +3831,7 @@
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3783,8 +3855,80 @@
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
     </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I13:I101 I2:I11">
+  <conditionalFormatting sqref="I2:I104">
     <cfRule type="containsText" dxfId="2" priority="1" stopIfTrue="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes", I2)))</formula>
     </cfRule>
@@ -3796,7 +3940,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I11 I13:I101">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I104">
       <formula1>"Yes,No,In Progress,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3809,11 +3953,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="57.140625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -3823,12 +3967,12 @@
     <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" customHeight="1">
+    <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
@@ -3844,7 +3988,7 @@
       <c r="N1" s="32"/>
       <c r="O1" s="32"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -3861,7 +4005,7 @@
       <c r="N2" s="32"/>
       <c r="O2" s="32"/>
     </row>
-    <row r="3" spans="1:18" ht="13.5" customHeight="1">
+    <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -3878,1230 +4022,1396 @@
       <c r="N3" s="33"/>
       <c r="O3" s="33"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="D4" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="F4" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="76"/>
+    </row>
+    <row r="5" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="G5" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="H5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="37"/>
-    </row>
-    <row r="5" spans="1:18" ht="21.75" customHeight="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39" t="s">
+      <c r="I5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="J5" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="K5" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="L5" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="M5" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="N5" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="O5" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="P5" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="Q5" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="R5" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="R5" s="39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41">
+    </row>
+    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="35">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(F5,2)))</f>
         <v>41899</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="35">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(G5,2)))</f>
         <v>41900</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="35">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(H5,2)))</f>
         <v>41901</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="35">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(I5,2)))</f>
         <v>41904</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="35">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(J5,2)))</f>
         <v>41905</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="35">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(K5,2)))</f>
         <v>41906</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="35">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(L5,2)))</f>
         <v>41907</v>
       </c>
-      <c r="M6" s="41">
+      <c r="M6" s="35">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(M5,2)))</f>
         <v>41908</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="35">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(N5,2)))</f>
         <v>41911</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="35">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(O5,2)))</f>
         <v>41912</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="35">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(P5,2)))</f>
         <v>41913</v>
       </c>
-      <c r="Q6" s="41">
+      <c r="Q6" s="35">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(Q5,2)))</f>
         <v>41914</v>
       </c>
-      <c r="R6" s="41">
+      <c r="R6" s="35">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(R5,2)))</f>
         <v>41915</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-    </row>
-    <row r="8" spans="1:18" ht="25.5">
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+    </row>
+    <row r="8" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47" t="str">
+        <v>50</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41" t="str">
         <f t="shared" ref="F8:O8" si="0">F5</f>
         <v>Day 0</v>
       </c>
-      <c r="G8" s="47" t="str">
+      <c r="G8" s="41" t="str">
         <f t="shared" si="0"/>
         <v>Day 1</v>
       </c>
-      <c r="H8" s="47" t="str">
+      <c r="H8" s="41" t="str">
         <f t="shared" si="0"/>
         <v>Day 2</v>
       </c>
-      <c r="I8" s="47" t="str">
+      <c r="I8" s="41" t="str">
         <f t="shared" si="0"/>
         <v>Day 3</v>
       </c>
-      <c r="J8" s="47" t="str">
+      <c r="J8" s="41" t="str">
         <f t="shared" si="0"/>
         <v>Day 4</v>
       </c>
-      <c r="K8" s="47" t="str">
+      <c r="K8" s="41" t="str">
         <f t="shared" si="0"/>
         <v>Day 5</v>
       </c>
-      <c r="L8" s="47" t="str">
+      <c r="L8" s="41" t="str">
         <f t="shared" si="0"/>
         <v>Day 6</v>
       </c>
-      <c r="M8" s="47" t="str">
+      <c r="M8" s="41" t="str">
         <f t="shared" si="0"/>
         <v>Day 7</v>
       </c>
-      <c r="N8" s="47" t="str">
+      <c r="N8" s="41" t="str">
         <f t="shared" si="0"/>
         <v>Day 8</v>
       </c>
-      <c r="O8" s="47" t="str">
+      <c r="O8" s="41" t="str">
         <f t="shared" si="0"/>
         <v>Day 9</v>
       </c>
-      <c r="P8" s="47" t="str">
+      <c r="P8" s="41" t="str">
         <f t="shared" ref="P8:Q8" si="1">P5</f>
         <v>Day 10</v>
       </c>
-      <c r="Q8" s="47" t="str">
+      <c r="Q8" s="41" t="str">
         <f t="shared" si="1"/>
         <v>Day 11</v>
       </c>
-      <c r="R8" s="47" t="str">
+      <c r="R8" s="41" t="str">
         <f t="shared" ref="R8" si="2">R5</f>
         <v>Day 12</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="18.75">
+    <row r="9" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="42">
+        <v>5</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="45"/>
+      <c r="F9" s="42">
+        <v>5</v>
+      </c>
+      <c r="G9" s="42">
+        <v>2</v>
+      </c>
+      <c r="H9" s="42">
+        <v>8</v>
+      </c>
+      <c r="I9" s="42">
+        <v>8</v>
+      </c>
+      <c r="J9" s="42">
+        <v>8</v>
+      </c>
+      <c r="K9" s="42">
+        <v>8</v>
+      </c>
+      <c r="L9" s="42">
+        <v>8</v>
+      </c>
+      <c r="M9" s="42">
+        <v>8</v>
+      </c>
+      <c r="N9" s="42">
+        <v>8</v>
+      </c>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+    </row>
+    <row r="10" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B10" s="42">
         <v>5</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C10" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="42">
+        <v>5</v>
+      </c>
+      <c r="G10" s="42">
+        <v>3</v>
+      </c>
+      <c r="H10" s="42">
+        <v>8</v>
+      </c>
+      <c r="I10" s="42">
+        <v>5</v>
+      </c>
+      <c r="J10" s="42">
+        <v>2</v>
+      </c>
+      <c r="K10" s="42">
+        <v>8</v>
+      </c>
+      <c r="L10" s="42">
+        <v>8</v>
+      </c>
+      <c r="M10" s="42">
+        <v>6</v>
+      </c>
+      <c r="N10" s="42">
+        <v>4</v>
+      </c>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+    </row>
+    <row r="11" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="B11" s="42">
+        <v>15</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="42">
+        <v>15</v>
+      </c>
+      <c r="G11" s="42">
+        <v>15</v>
+      </c>
+      <c r="H11" s="42">
+        <v>8</v>
+      </c>
+      <c r="I11" s="42">
+        <v>6</v>
+      </c>
+      <c r="J11" s="42">
+        <v>5</v>
+      </c>
+      <c r="K11" s="42">
+        <v>3</v>
+      </c>
+      <c r="L11" s="42">
+        <v>4</v>
+      </c>
+      <c r="M11" s="42">
+        <v>5</v>
+      </c>
+      <c r="N11" s="42">
+        <v>3</v>
+      </c>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+    </row>
+    <row r="12" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="42">
+        <v>9</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="42">
+        <v>9</v>
+      </c>
+      <c r="G12" s="42">
+        <v>9</v>
+      </c>
+      <c r="H12" s="42">
+        <v>4</v>
+      </c>
+      <c r="I12" s="42">
+        <v>5</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42">
+        <v>5</v>
+      </c>
+      <c r="L12" s="42">
+        <v>7</v>
+      </c>
+      <c r="M12" s="42">
+        <v>3</v>
+      </c>
+      <c r="N12" s="42">
+        <v>4</v>
+      </c>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+    </row>
+    <row r="13" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="42">
+        <v>30</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="45"/>
+      <c r="F13" s="42">
+        <v>30</v>
+      </c>
+      <c r="G13" s="42">
+        <v>25</v>
+      </c>
+      <c r="H13" s="42">
+        <v>4</v>
+      </c>
+      <c r="I13" s="42">
+        <v>8</v>
+      </c>
+      <c r="J13" s="42">
+        <v>3</v>
+      </c>
+      <c r="K13" s="42">
+        <v>9</v>
+      </c>
+      <c r="L13" s="42">
+        <v>7</v>
+      </c>
+      <c r="M13" s="42">
+        <v>9</v>
+      </c>
+      <c r="N13" s="42">
+        <v>9</v>
+      </c>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+    </row>
+    <row r="14" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="42">
+        <v>1</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="42">
+        <v>1</v>
+      </c>
+      <c r="G14" s="42">
+        <v>1</v>
+      </c>
+      <c r="H14" s="42">
+        <v>4</v>
+      </c>
+      <c r="I14" s="42">
+        <v>7</v>
+      </c>
+      <c r="J14" s="42">
+        <v>6</v>
+      </c>
+      <c r="K14" s="42">
+        <v>8</v>
+      </c>
+      <c r="L14" s="42">
+        <v>8</v>
+      </c>
+      <c r="M14" s="42">
+        <v>9</v>
+      </c>
+      <c r="N14" s="42">
+        <v>9</v>
+      </c>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+    </row>
+    <row r="15" spans="1:18" s="26" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+    </row>
+    <row r="16" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="42">
+        <v>1</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="42">
+        <v>1</v>
+      </c>
+      <c r="G16" s="42">
+        <v>1</v>
+      </c>
+      <c r="H16" s="42">
+        <v>8</v>
+      </c>
+      <c r="I16" s="42">
+        <v>3</v>
+      </c>
+      <c r="J16" s="42">
+        <v>1</v>
+      </c>
+      <c r="K16" s="42">
+        <v>1</v>
+      </c>
+      <c r="L16" s="42">
+        <v>1</v>
+      </c>
+      <c r="M16" s="42">
+        <v>1</v>
+      </c>
+      <c r="N16" s="42">
+        <v>1</v>
+      </c>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+    </row>
+    <row r="17" spans="1:18" s="26" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+    </row>
+    <row r="18" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="42">
+        <v>1</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="45"/>
+      <c r="F18" s="42">
+        <v>1</v>
+      </c>
+      <c r="G18" s="42">
+        <v>1</v>
+      </c>
+      <c r="H18" s="42">
+        <v>8</v>
+      </c>
+      <c r="I18" s="42">
+        <v>5</v>
+      </c>
+      <c r="J18" s="42">
+        <v>1</v>
+      </c>
+      <c r="K18" s="42">
+        <v>1</v>
+      </c>
+      <c r="L18" s="42">
+        <v>1</v>
+      </c>
+      <c r="M18" s="42">
+        <v>1</v>
+      </c>
+      <c r="N18" s="42">
+        <v>1</v>
+      </c>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+    </row>
+    <row r="19" spans="1:18" s="26" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+    </row>
+    <row r="20" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="42">
+        <v>5</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="42">
+        <v>5</v>
+      </c>
+      <c r="G20" s="42">
+        <v>4</v>
+      </c>
+      <c r="H20" s="42">
+        <v>8</v>
+      </c>
+      <c r="I20" s="42">
+        <v>7</v>
+      </c>
+      <c r="J20" s="42">
+        <v>4</v>
+      </c>
+      <c r="K20" s="42">
+        <v>5</v>
+      </c>
+      <c r="L20" s="42">
+        <v>6</v>
+      </c>
+      <c r="M20" s="42">
+        <v>4</v>
+      </c>
+      <c r="N20" s="42">
+        <v>2</v>
+      </c>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+    </row>
+    <row r="21" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="42">
+        <v>10</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="42">
+        <v>10</v>
+      </c>
+      <c r="G21" s="42">
+        <v>10</v>
+      </c>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+    </row>
+    <row r="22" spans="1:18" s="26" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="48"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+    </row>
+    <row r="23" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="42">
+        <v>1</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="45"/>
+      <c r="F23" s="42">
+        <v>1</v>
+      </c>
+      <c r="G23" s="42">
+        <v>1</v>
+      </c>
+      <c r="H23" s="42">
+        <v>0</v>
+      </c>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+    </row>
+    <row r="24" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="42">
+        <v>2</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="45"/>
+      <c r="F24" s="42">
+        <v>2</v>
+      </c>
+      <c r="G24" s="42">
+        <v>2</v>
+      </c>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+    </row>
+    <row r="25" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="42">
+        <v>2</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="45"/>
+      <c r="F25" s="42">
+        <v>2</v>
+      </c>
+      <c r="G25" s="42">
+        <v>2</v>
+      </c>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+    </row>
+    <row r="26" spans="1:18" s="26" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+    </row>
+    <row r="27" spans="1:18" s="24" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="49">
+        <v>2</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="52"/>
+      <c r="F27" s="49">
+        <v>2</v>
+      </c>
+      <c r="G27" s="49">
+        <v>2</v>
+      </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+    </row>
+    <row r="28" spans="1:18" s="26" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+    </row>
+    <row r="29" spans="1:18" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="49">
+        <v>1</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="52"/>
+      <c r="F29" s="49">
+        <v>1</v>
+      </c>
+      <c r="G29" s="49">
+        <v>1</v>
+      </c>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+    </row>
+    <row r="30" spans="1:18" s="24" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="49">
+        <v>2</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="52"/>
+      <c r="F30" s="49">
+        <v>2</v>
+      </c>
+      <c r="G30" s="49">
+        <v>2</v>
+      </c>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+    </row>
+    <row r="31" spans="1:18" s="24" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="49">
+        <v>2</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="48">
+      <c r="E31" s="52"/>
+      <c r="F31" s="49">
+        <v>2</v>
+      </c>
+      <c r="G31" s="49">
+        <v>2</v>
+      </c>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+    </row>
+    <row r="32" spans="1:18" s="26" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+    </row>
+    <row r="33" spans="1:18" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="49">
+        <v>10</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="52"/>
+      <c r="F33" s="49">
+        <v>10</v>
+      </c>
+      <c r="G33" s="49">
+        <v>8</v>
+      </c>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+    </row>
+    <row r="34" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="42">
+        <v>10</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="45"/>
+      <c r="F34" s="42">
+        <v>10</v>
+      </c>
+      <c r="G34" s="42">
+        <v>10</v>
+      </c>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+    </row>
+    <row r="35" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+    </row>
+    <row r="36" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="42">
         <v>5</v>
       </c>
-      <c r="G9" s="48">
-        <v>2</v>
-      </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-    </row>
-    <row r="10" spans="1:18" ht="18.75">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="48">
+      <c r="C36" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="45"/>
+      <c r="F36" s="42">
         <v>5</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="48">
+      <c r="G36" s="42">
         <v>5</v>
       </c>
-      <c r="G10" s="48">
-        <v>3</v>
-      </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-    </row>
-    <row r="11" spans="1:18" ht="18.75">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="48">
-        <v>15</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="48">
-        <v>15</v>
-      </c>
-      <c r="G11" s="48">
-        <v>15</v>
-      </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-    </row>
-    <row r="12" spans="1:18" ht="18.75">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="48">
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+    </row>
+    <row r="37" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+    </row>
+    <row r="38" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="42">
+        <v>10</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="45"/>
+      <c r="F38" s="42">
+        <v>10</v>
+      </c>
+      <c r="G38" s="42">
         <v>9</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="48">
-        <v>9</v>
-      </c>
-      <c r="G12" s="48">
-        <v>9</v>
-      </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-    </row>
-    <row r="13" spans="1:18" ht="18.75">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="48">
-        <v>30</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="48">
-        <v>30</v>
-      </c>
-      <c r="G13" s="48">
-        <v>25</v>
-      </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-    </row>
-    <row r="14" spans="1:18" ht="18.75">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="48">
-        <v>1</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="48">
-        <v>1</v>
-      </c>
-      <c r="G14" s="48">
-        <v>1</v>
-      </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-    </row>
-    <row r="15" spans="1:18" s="26" customFormat="1" ht="38.25">
-      <c r="A15" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-    </row>
-    <row r="16" spans="1:18" ht="18.75">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="48">
-        <v>1</v>
-      </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="48">
-        <v>1</v>
-      </c>
-      <c r="G16" s="48">
-        <v>1</v>
-      </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-    </row>
-    <row r="17" spans="1:18" s="26" customFormat="1" ht="38.25">
-      <c r="A17" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-    </row>
-    <row r="18" spans="1:18" ht="18.75">
-      <c r="A18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="48">
-        <v>1</v>
-      </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="48">
-        <v>1</v>
-      </c>
-      <c r="G18" s="48">
-        <v>1</v>
-      </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-    </row>
-    <row r="19" spans="1:18" s="26" customFormat="1" ht="51">
-      <c r="A19" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-    </row>
-    <row r="20" spans="1:18" ht="18.75">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="48">
-        <v>5</v>
-      </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="48">
-        <v>5</v>
-      </c>
-      <c r="G20" s="48">
-        <v>4</v>
-      </c>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-    </row>
-    <row r="21" spans="1:18" ht="18.75">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="48">
-        <v>10</v>
-      </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="48">
-        <v>10</v>
-      </c>
-      <c r="G21" s="48">
-        <v>10</v>
-      </c>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-    </row>
-    <row r="22" spans="1:18" s="26" customFormat="1" ht="38.25">
-      <c r="A22" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-    </row>
-    <row r="23" spans="1:18" ht="18.75">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="48">
-        <v>1</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="48">
-        <v>1</v>
-      </c>
-      <c r="G23" s="48">
-        <v>1</v>
-      </c>
-      <c r="H23" s="48">
-        <v>0</v>
-      </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-    </row>
-    <row r="24" spans="1:18" ht="18.75">
-      <c r="A24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="48">
-        <v>2</v>
-      </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="48">
-        <v>2</v>
-      </c>
-      <c r="G24" s="48">
-        <v>2</v>
-      </c>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-    </row>
-    <row r="25" spans="1:18" ht="18.75">
-      <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="48">
-        <v>2</v>
-      </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="48">
-        <v>2</v>
-      </c>
-      <c r="G25" s="48">
-        <v>2</v>
-      </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-    </row>
-    <row r="26" spans="1:18" s="26" customFormat="1" ht="38.25">
-      <c r="A26" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-    </row>
-    <row r="27" spans="1:18" s="24" customFormat="1" ht="25.5">
-      <c r="A27" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="55">
-        <v>2</v>
-      </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="55">
-        <v>2</v>
-      </c>
-      <c r="G27" s="55">
-        <v>2</v>
-      </c>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-    </row>
-    <row r="28" spans="1:18" s="26" customFormat="1" ht="38.25">
-      <c r="A28" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-    </row>
-    <row r="29" spans="1:18" s="24" customFormat="1" ht="18.75">
-      <c r="A29" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="55">
-        <v>1</v>
-      </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="55">
-        <v>1</v>
-      </c>
-      <c r="G29" s="55">
-        <v>1</v>
-      </c>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-    </row>
-    <row r="30" spans="1:18" s="24" customFormat="1" ht="25.5">
-      <c r="A30" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="55">
-        <v>2</v>
-      </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="55">
-        <v>2</v>
-      </c>
-      <c r="G30" s="55">
-        <v>2</v>
-      </c>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-    </row>
-    <row r="31" spans="1:18" s="24" customFormat="1" ht="38.25">
-      <c r="A31" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="55">
-        <v>2</v>
-      </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="58"/>
-      <c r="F31" s="55">
-        <v>2</v>
-      </c>
-      <c r="G31" s="55">
-        <v>2</v>
-      </c>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
-    </row>
-    <row r="32" spans="1:18" s="26" customFormat="1" ht="38.25">
-      <c r="A32" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-    </row>
-    <row r="33" spans="1:18" s="24" customFormat="1" ht="18.75">
-      <c r="A33" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="55">
-        <v>10</v>
-      </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="55">
-        <v>10</v>
-      </c>
-      <c r="G33" s="55">
-        <v>8</v>
-      </c>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="55"/>
-    </row>
-    <row r="34" spans="1:18" ht="25.5">
-      <c r="A34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="48">
-        <v>10</v>
-      </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="48">
-        <v>10</v>
-      </c>
-      <c r="G34" s="48">
-        <v>10</v>
-      </c>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-    </row>
-    <row r="35" spans="1:18" ht="51">
-      <c r="A35" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-    </row>
-    <row r="36" spans="1:18" ht="25.5">
-      <c r="A36" t="s">
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+    </row>
+    <row r="39" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="53"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="54"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="48">
-        <v>5</v>
-      </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="51"/>
-      <c r="F36" s="48">
-        <v>5</v>
-      </c>
-      <c r="G36" s="48">
-        <v>5</v>
-      </c>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-    </row>
-    <row r="37" spans="1:18" ht="51">
-      <c r="A37" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-    </row>
-    <row r="38" spans="1:18" ht="31.5">
-      <c r="A38" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="48">
-        <v>10</v>
-      </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="48">
-        <v>10</v>
-      </c>
-      <c r="G38" s="48">
-        <v>9</v>
-      </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-    </row>
-    <row r="39" spans="1:18" ht="18.75">
-      <c r="A39" s="59"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.75">
-      <c r="A40" s="60"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="F40" s="62">
+      <c r="F40" s="56">
         <f>SUM(F9:F39)</f>
         <v>129</v>
       </c>
-      <c r="G40" s="62">
+      <c r="G40" s="56">
         <f t="shared" ref="G40:L40" si="3">SUM(G9:G39)</f>
         <v>115</v>
       </c>
-      <c r="H40" s="62">
+      <c r="H40" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="62">
+        <v>60</v>
+      </c>
+      <c r="I40" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="62">
+        <v>54</v>
+      </c>
+      <c r="J40" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="62">
+        <v>30</v>
+      </c>
+      <c r="K40" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="62">
+        <v>48</v>
+      </c>
+      <c r="L40" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="62">
+        <v>50</v>
+      </c>
+      <c r="M40" s="56">
         <f t="shared" ref="M40" si="4">SUM(M9:M39)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="62">
+        <v>46</v>
+      </c>
+      <c r="N40" s="56">
         <f t="shared" ref="N40" si="5">SUM(N9:N39)</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="62">
+        <v>41</v>
+      </c>
+      <c r="O40" s="56">
         <f t="shared" ref="O40" si="6">SUM(O9:O39)</f>
         <v>0</v>
       </c>
-      <c r="P40" s="62">
+      <c r="P40" s="56">
         <f t="shared" ref="P40" si="7">SUM(P9:P39)</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="62">
+      <c r="Q40" s="56">
         <f t="shared" ref="Q40" si="8">SUM(Q9:Q39)</f>
         <v>0</v>
       </c>
-      <c r="R40" s="62">
+      <c r="R40" s="56">
         <f t="shared" ref="R40" si="9">SUM(R9:R39)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15.75">
+    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="33"/>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50">
+      <c r="D41" s="57"/>
+      <c r="E41" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44">
         <f>F40-G40</f>
         <v>14</v>
       </c>
-      <c r="H41" s="50">
+      <c r="H41" s="44">
         <f t="shared" ref="H41:P41" si="10">G40-H40</f>
-        <v>115</v>
-      </c>
-      <c r="I41" s="50">
+        <v>55</v>
+      </c>
+      <c r="I41" s="44">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="J41" s="44">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="K41" s="44">
+        <f t="shared" si="10"/>
+        <v>-18</v>
+      </c>
+      <c r="L41" s="44">
+        <f t="shared" si="10"/>
+        <v>-2</v>
+      </c>
+      <c r="M41" s="44">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="N41" s="44">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="O41" s="44">
+        <f t="shared" si="10"/>
+        <v>41</v>
+      </c>
+      <c r="P41" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J41" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="50">
+      <c r="Q41" s="44">
         <f t="shared" ref="Q41" si="11">P40-Q40</f>
         <v>0</v>
       </c>
-      <c r="R41" s="50">
+      <c r="R41" s="44">
         <f t="shared" ref="R41" si="12">Q40-R40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A42" s="64" t="s">
-        <v>91</v>
+    <row r="42" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="58" t="s">
+        <v>88</v>
       </c>
       <c r="B42" s="5">
         <f>SUM(B9:B40)</f>
         <v>129</v>
       </c>
-      <c r="C42" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="66"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="60"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-    </row>
-    <row r="43" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A43" s="67"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="60"/>
+      <c r="C42" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="60"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+    </row>
+    <row r="43" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="61"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
@@ -5115,12 +5425,12 @@
       <c r="N43" s="32"/>
       <c r="O43" s="32"/>
     </row>
-    <row r="44" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A44" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="66"/>
+    <row r="44" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="44"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
@@ -5134,15 +5444,15 @@
       <c r="N44" s="32"/>
       <c r="O44" s="32"/>
     </row>
-    <row r="45" spans="1:18" ht="15.75">
-      <c r="A45" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="50">
+    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="44">
         <f>COUNTIF($D$9:$D$40,"Not Started")</f>
-        <v>14</v>
-      </c>
-      <c r="C45" s="66"/>
+        <v>3</v>
+      </c>
+      <c r="C45" s="60"/>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
@@ -5156,15 +5466,15 @@
       <c r="N45" s="32"/>
       <c r="O45" s="32"/>
     </row>
-    <row r="46" spans="1:18" ht="15.75">
-      <c r="A46" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="50">
+    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="44">
         <f>COUNTIF($D$9:$D$40,"In Progress")</f>
-        <v>6</v>
-      </c>
-      <c r="C46" s="66"/>
+        <v>7</v>
+      </c>
+      <c r="C46" s="60"/>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
@@ -5178,15 +5488,15 @@
       <c r="N46" s="32"/>
       <c r="O46" s="32"/>
     </row>
-    <row r="47" spans="1:18" ht="15.75">
-      <c r="A47" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="50">
+    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="44">
         <f>COUNTIF($D$9:$D$40,"Complete")</f>
-        <v>1</v>
-      </c>
-      <c r="C47" s="66"/>
+        <v>13</v>
+      </c>
+      <c r="C47" s="60"/>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
@@ -5200,9 +5510,9 @@
       <c r="N47" s="32"/>
       <c r="O47" s="32"/>
     </row>
-    <row r="48" spans="1:18" ht="15.75">
-      <c r="A48" s="60"/>
-      <c r="B48" s="60"/>
+    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="54"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="32"/>
       <c r="D48" s="32"/>
       <c r="E48" s="32"/>
@@ -5334,7 +5644,7 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.42578125" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" customWidth="1"/>
@@ -5342,288 +5652,288 @@
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="67"/>
+    </row>
+    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>97</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="73"/>
-    </row>
-    <row r="2" spans="1:5" ht="38.25">
-      <c r="A2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>100</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="73"/>
-    </row>
-    <row r="3" spans="1:5" ht="51">
+      <c r="E2" s="67"/>
+    </row>
+    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
-      <c r="E3" s="73"/>
-    </row>
-    <row r="4" spans="1:5" ht="63.75">
+      <c r="E3" s="67"/>
+    </row>
+    <row r="4" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="73"/>
-    </row>
-    <row r="5" spans="1:5" ht="76.5">
+      <c r="E4" s="67"/>
+    </row>
+    <row r="5" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="73"/>
-    </row>
-    <row r="6" spans="1:5" ht="89.25">
+      <c r="E5" s="67"/>
+    </row>
+    <row r="6" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="73"/>
-    </row>
-    <row r="7" spans="1:5" ht="51">
+      <c r="E6" s="67"/>
+    </row>
+    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="73"/>
-    </row>
-    <row r="8" spans="1:5" ht="51">
+      <c r="E7" s="67"/>
+    </row>
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="73"/>
-    </row>
-    <row r="9" spans="1:5" ht="102">
+      <c r="E8" s="67"/>
+    </row>
+    <row r="9" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="73"/>
-    </row>
-    <row r="10" spans="1:5" ht="89.25">
+      <c r="E9" s="67"/>
+    </row>
+    <row r="10" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
-      <c r="E10" s="73"/>
-    </row>
-    <row r="11" spans="1:5" ht="102">
+      <c r="E10" s="67"/>
+    </row>
+    <row r="11" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="73"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="74" t="s">
-        <v>112</v>
+      <c r="E11" s="67"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="68" t="s">
+        <v>109</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1">
+    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1">
+    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -5646,10 +5956,10 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="204.42578125" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
@@ -5657,95 +5967,95 @@
     <col min="4" max="4" width="75.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A1" s="75" t="s">
-        <v>113</v>
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
+        <v>110</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -5761,590 +6071,590 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55" customWidth="1"/>
+    <col min="1" max="1" width="222.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A11 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B9) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C9) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D9) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F9) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G9) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H9,2)</f>
+        <f>(((((((((((((((((((((((ProductBacklog!A14 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B12) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C12) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D12) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F12) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G12) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H12,2)</f>
         <v>10. As a Developer I want to Be able to scale the application to future growth and research so that the application can be kept up to date throughout time Complexity: 4 Value: 100 Priority: 400</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A14 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B14) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C14) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D14) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F14) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G14) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H14,2)</f>
+        <f>(((((((((((((((((((((((ProductBacklog!A17 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B17) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C17) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D17) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F17) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G17) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H17,2)</f>
         <v>13. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A13 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B10) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C10) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D10) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F10) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G10) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H10,2)</f>
+        <f>(((((((((((((((((((((((ProductBacklog!A16 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B13) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C13) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D13) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F13) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G13) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H13,2)</f>
         <v>12. As a Developer I want to be able to update the user application where changes occured, avoiding a complete download of all the data and enabling selective updates so that only the new data is downloaded in a update. Complexity: 4 Value: 50 Priority: 200</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="12.75" customHeight="1">
+    <row r="4" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>(((((((((((((((((((((((ProductBacklog!A3 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B3) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C3) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D3) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F3) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G3) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H3,2)</f>
-        <v>2. As a Administrator I want to Be able to delete items from the System so that users can update their app to delete obsolete or faulty items Complexity: 1 Value: 70 Priority: 70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="12.75" customHeight="1">
+        <v>2. As a Administrator I want to Be able to delete a problem from the System so that users can update their app to delete obsolete or faulty items Complexity: 1 Value: 70 Priority: 70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="e">
-        <f>(((((((((((((((((((((((ProductBacklog!A12 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!#REF!) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!#REF!) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!#REF!) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!#REF!) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!#REF!) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!#REF!,2)</f>
+        <f>(((((((((((((((((((((((ProductBacklog!A15 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!#REF!) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!#REF!) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!#REF!) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!#REF!) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!#REF!) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!#REF!,2)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="12.75" customHeight="1">
+    <row r="6" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A8 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B7) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C7) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D7) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F7) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G7) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H7,2)</f>
+        <f>(((((((((((((((((((((((ProductBacklog!A11 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B10) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C10) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D10) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F10) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G10) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H10,2)</f>
         <v>7. As a User I want to Be able to find further information on a subject so that I can further educate myself if the information in the application is insufficient Complexity: 1 Value: 100 Priority: 100</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A7 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B6) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C6) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D6) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F6) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G6) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H6,2)</f>
+        <f>(((((((((((((((((((((((ProductBacklog!A10 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B9) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C9) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D9) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F9) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G9) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H9,2)</f>
         <v>6. As a User I want to Be able to navigate through a menu structure to diagnose my problem so that I can find the advice I need in the application data Complexity: 1 Value: 50 Priority: 50</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A9 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B8) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C8) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D8) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F8) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G8) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H8,2)</f>
+        <f>(((((((((((((((((((((((ProductBacklog!A12 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B11) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C11) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D11) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F11) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G11) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H11,2)</f>
         <v>8. As a User I want to Be able to check for updates and update the application so that I can benefit from the latest updates and additions to the database Complexity: 3 Value: 100 Priority: 300</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A4 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B4) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C5) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D5) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F4) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G4) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H4,2)</f>
+        <f>(((((((((((((((((((((((ProductBacklog!A4 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B4) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C8) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D8) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F4) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G4) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H4,2)</f>
         <v>3. As a Administrator I want to Be able to define a menu structure which enables the user to navigate to content easily so that the search time is minimal and ideally logarithmicaly related to the size of the data set available Complexity: 3 Value: 70 Priority: 210</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="12.75" customHeight="1">
+    <row r="10" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A15 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B15) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C15) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D15) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F15) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G15) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H15,2)</f>
+        <f>(((((((((((((((((((((((ProductBacklog!A18 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B18) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C18) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D18) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F18) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G18) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H18,2)</f>
         <v>14. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="12.75" customHeight="1">
+    <row r="11" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A16 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B16) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C16) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D16) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F16) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G16) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H16,2)</f>
+        <f>(((((((((((((((((((((((ProductBacklog!A19 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B19) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C19) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D19) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F19) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G19) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H19,2)</f>
         <v>15. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="12.75" customHeight="1">
+    <row r="12" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>(((((((((((((((((((((((ProductBacklog!A2 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B2) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C2) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D2) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F2) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G2) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H2,2)</f>
-        <v>1. As a Administrator I want to Be able to add items to the System so that users can update their app to incorporate the new items Complexity: 1 Value: 100 Priority: 100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="12.75" customHeight="1">
+        <v>1. As a Administrator I want to Be able to add a new problem to the System so that users can update their app to incorporate the new items Complexity: 1 Value: 100 Priority: 100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A18 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B18) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C18) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D18) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F18) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G18) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H18,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="12.75" customHeight="1">
+        <f>(((((((((((((((((((((((ProductBacklog!A21 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B21) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C21) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D21) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F21) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G21) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H21,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A19 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B19) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C19) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D19) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F19) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G19) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H19,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="12.75" customHeight="1">
+        <f>(((((((((((((((((((((((ProductBacklog!A22 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B22) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C22) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D22) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F22) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G22) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H22,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A20 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B20) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C20) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D20) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F20) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G20) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H20,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="12.75" customHeight="1">
+        <f>(((((((((((((((((((((((ProductBacklog!A23 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B23) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C23) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D23) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F23) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G23) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H23,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A21 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B21) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C21) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D21) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F21) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G21) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H21,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="12.75" customHeight="1">
+        <f>(((((((((((((((((((((((ProductBacklog!A24 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B24) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C24) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D24) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F24) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G24) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H24,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A22 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B22) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C22) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D22) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F22) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G22) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H22,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="12.75" customHeight="1">
+        <f>(((((((((((((((((((((((ProductBacklog!A25 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B25) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C25) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D25) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F25) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G25) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H25,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A23 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B23) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C23) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D23) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F23) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G23) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H23,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="12.75" customHeight="1">
+        <f>(((((((((((((((((((((((ProductBacklog!A26 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B26) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C26) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D26) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F26) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G26) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H26,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A24 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B24) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C24) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D24) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F24) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G24) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H24,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="12.75" customHeight="1">
+        <f>(((((((((((((((((((((((ProductBacklog!A27 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B27) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C27) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D27) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F27) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G27) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H27,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A25 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B25) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C25) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D25) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F25) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G25) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H25,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="12.75" customHeight="1">
+        <f>(((((((((((((((((((((((ProductBacklog!A28 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B28) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C28) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D28) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F28) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G28) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H28,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A26 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B26) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C26) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D26) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F26) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G26) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H26,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="12.75" customHeight="1">
+        <f>(((((((((((((((((((((((ProductBacklog!A29 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B29) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C29) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D29) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F29) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G29) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H29,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A27 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B27) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C27) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D27) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F27) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G27) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H27,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="12.75" customHeight="1">
+        <f>(((((((((((((((((((((((ProductBacklog!A30 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B30) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C30) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D30) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F30) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G30) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H30,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A28 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B28) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C28) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D28) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F28) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G28) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H28,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="12.75" customHeight="1">
+        <f>(((((((((((((((((((((((ProductBacklog!A31 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B31) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C31) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D31) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F31) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G31) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H31,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A29 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B29) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C29) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D29) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F29) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G29) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H29,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="12.75" customHeight="1">
+        <f>(((((((((((((((((((((((ProductBacklog!A32 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B32) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C32) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D32) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F32) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G32) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H32,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A30 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B30) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C30) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D30) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F30) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G30) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H30,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="12.75" customHeight="1">
+        <f>(((((((((((((((((((((((ProductBacklog!A33 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B33) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C33) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D33) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F33) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G33) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H33,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A31 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B31) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C31) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D31) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F31) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G31) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H31,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="12.75" customHeight="1">
+        <f>(((((((((((((((((((((((ProductBacklog!A34 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B34) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C34) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D34) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F34) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G34) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H34,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A32 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B32) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C32) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D32) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F32) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G32) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H32,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="12.75" customHeight="1">
+        <f>(((((((((((((((((((((((ProductBacklog!A35 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B35) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C35) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D35) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F35) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G35) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H35,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A33 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B33) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C33) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D33) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F33) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G33) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H33,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A36 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B36) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C36) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D36) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F36) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G36) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H36,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A34 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B34) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C34) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D34) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F34) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G34) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H34,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A37 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B37) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C37) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D37) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F37) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G37) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H37,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A35 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B35) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C35) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D35) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F35) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G35) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H35,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A38 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B38) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C38) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D38) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F38) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G38) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H38,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A36 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B36) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C36) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D36) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F36) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G36) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H36,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A39 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B39) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C39) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D39) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F39) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G39) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H39,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A37 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B37) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C37) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D37) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F37) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G37) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H37,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A40 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B40) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C40) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D40) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F40) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G40) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H40,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A38 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B38) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C38) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D38) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F38) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G38) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H38,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A41 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B41) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C41) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D41) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F41) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G41) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H41,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A39 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B39) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C39) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D39) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F39) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G39) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H39,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A42 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B42) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C42) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D42) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F42) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G42) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H42,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A40 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B40) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C40) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D40) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F40) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G40) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H40,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A43 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B43) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C43) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D43) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F43) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G43) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H43,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A41 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B41) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C41) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D41) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F41) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G41) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H41,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A44 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B44) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C44) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D44) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F44) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G44) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H44,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A42 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B42) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C42) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D42) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F42) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G42) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H42,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A45 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B45) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C45) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D45) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F45) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G45) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H45,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A43 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B43) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C43) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D43) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F43) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G43) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H43,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A46 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B46) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C46) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D46) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F46) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G46) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H46,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A44 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B44) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C44) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D44) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F44) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G44) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H44,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A47 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B47) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C47) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D47) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F47) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G47) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H47,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A45 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B45) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C45) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D45) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F45) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G45) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H45,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A48 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B48) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C48) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D48) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F48) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G48) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H48,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A46 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B46) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C46) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D46) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F46) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G46) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H46,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A49 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B49) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C49) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D49) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F49) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G49) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H49,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A47 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B47) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C47) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D47) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F47) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G47) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H47,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A50 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B50) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C50) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D50) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F50) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G50) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H50,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A48 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B48) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C48) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D48) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F48) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G48) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H48,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A51 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B51) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C51) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D51) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F51) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G51) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H51,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A49 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B49) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C49) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D49) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F49) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G49) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H49,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A52 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B52) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C52) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D52) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F52) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G52) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H52,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A50 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B50) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C50) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D50) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F50) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G50) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H50,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A53 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B53) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C53) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D53) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F53) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G53) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H53,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A51 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B51) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C51) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D51) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F51) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G51) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H51,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A54 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B54) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C54) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D54) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F54) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G54) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H54,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A52 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B52) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C52) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D52) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F52) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G52) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H52,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A55 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B55) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C55) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D55) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F55) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G55) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H55,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A53 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B53) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C53) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D53) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F53) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G53) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H53,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A56 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B56) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C56) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D56) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F56) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G56) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H56,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A54 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B54) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C54) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D54) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F54) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G54) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H54,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A57 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B57) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C57) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D57) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F57) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G57) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H57,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A55 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B55) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C55) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D55) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F55) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G55) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H55,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A58 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B58) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C58) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D58) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F58) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G58) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H58,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A56 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B56) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C56) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D56) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F56) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G56) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H56,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A59 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B59) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C59) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D59) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F59) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G59) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H59,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A57 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B57) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C57) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D57) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F57) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G57) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H57,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A60 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B60) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C60) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D60) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F60) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G60) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H60,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A58 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B58) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C58) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D58) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F58) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G58) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H58,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A61 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B61) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C61) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D61) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F61) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G61) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H61,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A59 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B59) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C59) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D59) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F59) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G59) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H59,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A62 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B62) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C62) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D62) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F62) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G62) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H62,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A60 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B60) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C60) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D60) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F60) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G60) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H60,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A63 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B63) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C63) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D63) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F63) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G63) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H63,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A61 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B61) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C61) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D61) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F61) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G61) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H61,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A64 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B64) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C64) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D64) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F64) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G64) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H64,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A62 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B62) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C62) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D62) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F62) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G62) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H62,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A65 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B65) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C65) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D65) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F65) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G65) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H65,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A63 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B63) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C63) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D63) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F63) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G63) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H63,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A66 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B66) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C66) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D66) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F66) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G66) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H66,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A64 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B64) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C64) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D64) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F64) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G64) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H64,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A67 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B67) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C67) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D67) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F67) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G67) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H67,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A65 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B65) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C65) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D65) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F65) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G65) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H65,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A68 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B68) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C68) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D68) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F68) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G68) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H68,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A66 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B66) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C66) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D66) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F66) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G66) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H66,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A69 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B69) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C69) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D69) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F69) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G69) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H69,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A67 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B67) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C67) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D67) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F67) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G67) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H67,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A70 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B70) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C70) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D70) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F70) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G70) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H70,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A68 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B68) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C68) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D68) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F68) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G68) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H68,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A71 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B71) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C71) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D71) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F71) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G71) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H71,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A69 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B69) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C69) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D69) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F69) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G69) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H69,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A72 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B72) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C72) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D72) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F72) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G72) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H72,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A70 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B70) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C70) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D70) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F70) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G70) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H70,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A73 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B73) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C73) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D73) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F73) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G73) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H73,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A71 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B71) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C71) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D71) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F71) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G71) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H71,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A74 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B74) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C74) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D74) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F74) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G74) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H74,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A72 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B72) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C72) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D72) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F72) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G72) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H72,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A75 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B75) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C75) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D75) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F75) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G75) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H75,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A73 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B73) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C73) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D73) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F73) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G73) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H73,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A76 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B76) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C76) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D76) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F76) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G76) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H76,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A74 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B74) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C74) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D74) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F74) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G74) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H74,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A77 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B77) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C77) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D77) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F77) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G77) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H77,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A75 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B75) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C75) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D75) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F75) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G75) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H75,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A78 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B78) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C78) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D78) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F78) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G78) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H78,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A76 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B76) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C76) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D76) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F76) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G76) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H76,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A79 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B79) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C79) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D79) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F79) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G79) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H79,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A77 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B77) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C77) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D77) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F77) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G77) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H77,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A80 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B80) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C80) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D80) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F80) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G80) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H80,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A78 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B78) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C78) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D78) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F78) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G78) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H78,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A81 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B81) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C81) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D81) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F81) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G81) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H81,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A79 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B79) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C79) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D79) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F79) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G79) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H79,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A82 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B82) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C82) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D82) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F82) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G82) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H82,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A80 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B80) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C80) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D80) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F80) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G80) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H80,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A83 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B83) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C83) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D83) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F83) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G83) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H83,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A81 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B81) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C81) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D81) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F81) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G81) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H81,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A84 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B84) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C84) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D84) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F84) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G84) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H84,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A82 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B82) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C82) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D82) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F82) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G82) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H82,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A85 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B85) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C85) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D85) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F85) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G85) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H85,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A83 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B83) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C83) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D83) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F83) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G83) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H83,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A86 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B86) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C86) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D86) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F86) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G86) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H86,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A84 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B84) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C84) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D84) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F84) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G84) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H84,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A87 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B87) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C87) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D87) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F87) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G87) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H87,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A85 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B85) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C85) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D85) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F85) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G85) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H85,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A88 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B88) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C88) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D88) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F88) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G88) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H88,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A86 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B86) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C86) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D86) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F86) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G86) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H86,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A89 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B89) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C89) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D89) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F89) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G89) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H89,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A87 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B87) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C87) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D87) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F87) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G87) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H87,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A90 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B90) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C90) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D90) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F90) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G90) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H90,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A88 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B88) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C88) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D88) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F88) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G88) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H88,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A91 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B91) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C91) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D91) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F91) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G91) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H91,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A89 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B89) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C89) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D89) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F89) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G89) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H89,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A92 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B92) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C92) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D92) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F92) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G92) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H92,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A90 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B90) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C90) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D90) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F90) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G90) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H90,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A93 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B93) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C93) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D93) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F93) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G93) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H93,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A91 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B91) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C91) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D91) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F91) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G91) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H91,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A94 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B94) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C94) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D94) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F94) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G94) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H94,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A92 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B92) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C92) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D92) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F92) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G92) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H92,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A95 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B95) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C95) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D95) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F95) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G95) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H95,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A93 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B93) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C93) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D93) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F93) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G93) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H93,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A96 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B96) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C96) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D96) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F96) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G96) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H96,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A94 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B94) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C94) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D94) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F94) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G94) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H94,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A97 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B97) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C97) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D97) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F97) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G97) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H97,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A95 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B95) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C95) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D95) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F95) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G95) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H95,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A98 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B98) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C98) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D98) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F98) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G98) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H98,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A96 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B96) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C96) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D96) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F96) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G96) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H96,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A99 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B99) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C99) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D99) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F99) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G99) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H99,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A97 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B97) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C97) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D97) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F97) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G97) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H97,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A100 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B100) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C100) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D100) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F100) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G100) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H100,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A98 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B98) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C98) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D98) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F98) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G98) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H98,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A101 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B101) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C101) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D101) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F101) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G101) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H101,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A99 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B99) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C99) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D99) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F99) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G99) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H99,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A102 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B102) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C102) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D102) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F102) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G102) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H102,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A100 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B100) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C100) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D100) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F100) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G100) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H100,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A103 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B103) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C103) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D103) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F103) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G103) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H103,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A101 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B101) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C101) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D101) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F101) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G101) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H101,2)</f>
-        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+        <f>(((((((((((((((((((((((ProductBacklog!A104 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B104) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C104) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D104) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F104) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G104) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H104,2)</f>
+        <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
-        <f>(((((((((((((((((((((((ProductBacklog!A102 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B102) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C102) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D102) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F102) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G102) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H102,2)</f>
+        <f>(((((((((((((((((((((((ProductBacklog!A105 &amp; ". ") &amp; ProductBacklog!B$1) &amp; " ") &amp; ProductBacklog!B105) &amp; " ") &amp; ProductBacklog!C$1) &amp; " ") &amp; ProductBacklog!C105) &amp; " ") &amp; ProductBacklog!D$1) &amp; " ") &amp; ProductBacklog!D105) &amp; " ") &amp; ProductBacklog!F$1) &amp; ": ") &amp; ProductBacklog!F105) &amp; " ") &amp; ProductBacklog!G$1) &amp; ": ") &amp; ProductBacklog!G105) &amp; " ") &amp; ProductBacklog!H$1) &amp; ": ") &amp; ROUND(ProductBacklog!H105,2)</f>
         <v>. As a  I want to  so that  Complexity:  Value:  Priority: 0</v>
       </c>
     </row>
@@ -6358,19 +6668,19 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="77">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="71">
         <v>41899</v>
       </c>
       <c r="C1" s="32"/>
@@ -6378,7 +6688,7 @@
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="32"/>
@@ -6386,111 +6696,117 @@
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:6" ht="45" customHeight="1">
-      <c r="A3" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="66"/>
+    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25">
+    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="79"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="79"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
     </row>
-    <row r="6" spans="1:6" ht="26.25">
+    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="79"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="79"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
     </row>
-    <row r="8" spans="1:6" ht="26.25">
+    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="79"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="79"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="79"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="79"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75">
-      <c r="A12" s="32"/>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>117</v>
+      </c>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -6498,7 +6814,7 @@
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -6506,7 +6822,7 @@
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -6514,7 +6830,7 @@
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -6522,7 +6838,7 @@
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -6530,7 +6846,7 @@
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -6538,7 +6854,7 @@
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
@@ -6546,7 +6862,7 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -6554,7 +6870,7 @@
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>

--- a/Paperwork/sprint-backlog.xlsx
+++ b/Paperwork/sprint-backlog.xlsx
@@ -5,26 +5,27 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kurty\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronsc_000\Documents\GitHub\PotatoApp\Paperwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="643" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="643" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
-    <sheet name="Acceptance Tests" sheetId="4" r:id="rId3"/>
-    <sheet name="user_stories" sheetId="5" r:id="rId4"/>
-    <sheet name="UserStories" sheetId="6" r:id="rId5"/>
-    <sheet name="Configuration Details" sheetId="7" r:id="rId6"/>
+    <sheet name="Burndown Chart" sheetId="8" r:id="rId3"/>
+    <sheet name="Acceptance Tests" sheetId="4" r:id="rId4"/>
+    <sheet name="user_stories" sheetId="5" r:id="rId5"/>
+    <sheet name="UserStories" sheetId="6" r:id="rId6"/>
+    <sheet name="Configuration Details" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="133">
   <si>
     <t>ID</t>
   </si>
@@ -185,16 +186,10 @@
     <t>KM</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Create Database tables</t>
   </si>
   <si>
     <t>populate DB</t>
-  </si>
-  <si>
-    <t>Not Started</t>
   </si>
   <si>
     <t>Create Stored Procedures</t>
@@ -439,7 +434,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -493,6 +488,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="186"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -799,7 +800,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -862,6 +862,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,6 +902,999 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Date</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Burndown</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sprint Backlog'!$F$40:$R$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="368455984"/>
+        <c:axId val="368461864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="368455984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="[$-407]d/\ mmm/\ yyyy;@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="368461864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="368461864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="368455984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1242,7 +2238,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>10</v>
@@ -1261,7 +2257,7 @@
         <v>100</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1285,7 +2281,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>12</v>
@@ -1304,7 +2300,7 @@
         <v>70</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="1"/>
@@ -1328,7 +2324,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>13</v>
@@ -1345,7 +2341,7 @@
         <v>210</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="1"/>
@@ -1367,10 +2363,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
@@ -1383,7 +2379,7 @@
         <v>80</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="1"/>
@@ -1405,10 +2401,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
@@ -1421,7 +2417,7 @@
         <v>80</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="1"/>
@@ -1442,7 +2438,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1457,7 +2453,7 @@
         <v>80</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
@@ -1755,10 +2751,10 @@
         <v>23</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="2">
@@ -1772,7 +2768,7 @@
         <v>600</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="1"/>
@@ -3953,8 +4949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="B20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4023,40 +5019,40 @@
       <c r="O3" s="33"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="76"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="75"/>
     </row>
     <row r="5" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="34" t="s">
         <v>37</v>
       </c>
@@ -4098,11 +5094,11 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="35">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(F5,2)))</f>
         <v>41899</v>
@@ -4248,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" s="45"/>
       <c r="F9" s="42">
@@ -4278,14 +5274,22 @@
       <c r="N9" s="42">
         <v>8</v>
       </c>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
+      <c r="O9" s="42">
+        <v>4</v>
+      </c>
+      <c r="P9" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="42">
+        <v>0</v>
+      </c>
+      <c r="R9" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="42">
         <v>5</v>
@@ -4294,7 +5298,7 @@
         <v>52</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" s="45"/>
       <c r="F10" s="42">
@@ -4324,14 +5328,22 @@
       <c r="N10" s="42">
         <v>4</v>
       </c>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
+      <c r="O10" s="42">
+        <v>3</v>
+      </c>
+      <c r="P10" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="42">
+        <v>0</v>
+      </c>
+      <c r="R10" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="42">
         <v>15</v>
@@ -4340,7 +5352,7 @@
         <v>52</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E11" s="45"/>
       <c r="F11" s="42">
@@ -4370,14 +5382,22 @@
       <c r="N11" s="42">
         <v>3</v>
       </c>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
+      <c r="O11" s="42">
+        <v>0</v>
+      </c>
+      <c r="P11" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="42">
+        <v>0</v>
+      </c>
+      <c r="R11" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="42">
         <v>9</v>
@@ -4386,7 +5406,7 @@
         <v>52</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E12" s="45"/>
       <c r="F12" s="42">
@@ -4401,7 +5421,9 @@
       <c r="I12" s="42">
         <v>5</v>
       </c>
-      <c r="J12" s="42"/>
+      <c r="J12" s="42">
+        <v>3</v>
+      </c>
       <c r="K12" s="42">
         <v>5</v>
       </c>
@@ -4414,23 +5436,31 @@
       <c r="N12" s="42">
         <v>4</v>
       </c>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
+      <c r="O12" s="42">
+        <v>2</v>
+      </c>
+      <c r="P12" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="42">
+        <v>0</v>
+      </c>
+      <c r="R12" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="42">
         <v>30</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" s="45"/>
       <c r="F13" s="42">
@@ -4460,23 +5490,31 @@
       <c r="N13" s="42">
         <v>9</v>
       </c>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
+      <c r="O13" s="42">
+        <v>5</v>
+      </c>
+      <c r="P13" s="42">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="42">
+        <v>0</v>
+      </c>
+      <c r="R13" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" s="42">
         <v>1</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" s="45"/>
       <c r="F14" s="42">
@@ -4506,21 +5544,29 @@
       <c r="N14" s="42">
         <v>9</v>
       </c>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
+      <c r="O14" s="42">
+        <v>4</v>
+      </c>
+      <c r="P14" s="42">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="42">
+        <v>0</v>
+      </c>
+      <c r="R14" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:18" s="26" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="46"/>
       <c r="C15" s="47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="46"/>
@@ -4539,16 +5585,16 @@
     </row>
     <row r="16" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="42">
         <v>1</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E16" s="45"/>
       <c r="F16" s="42">
@@ -4578,21 +5624,29 @@
       <c r="N16" s="42">
         <v>1</v>
       </c>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
+      <c r="O16" s="42">
+        <v>0</v>
+      </c>
+      <c r="P16" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="42">
+        <v>0</v>
+      </c>
+      <c r="R16" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:18" s="26" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="46"/>
@@ -4611,16 +5665,16 @@
     </row>
     <row r="18" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="42">
         <v>1</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="42">
@@ -4650,18 +5704,26 @@
       <c r="N18" s="42">
         <v>1</v>
       </c>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
+      <c r="O18" s="42">
+        <v>0</v>
+      </c>
+      <c r="P18" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="42">
+        <v>0</v>
+      </c>
+      <c r="R18" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:18" s="26" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="46"/>
       <c r="C19" s="47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="40"/>
@@ -4681,16 +5743,16 @@
     </row>
     <row r="20" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="42">
         <v>5</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" s="45"/>
       <c r="F20" s="42">
@@ -4720,23 +5782,31 @@
       <c r="N20" s="42">
         <v>2</v>
       </c>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
+      <c r="O20" s="42">
+        <v>0</v>
+      </c>
+      <c r="P20" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="42">
+        <v>0</v>
+      </c>
+      <c r="R20" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" s="42">
         <v>10</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E21" s="45"/>
       <c r="F21" s="42">
@@ -4745,25 +5815,47 @@
       <c r="G21" s="42">
         <v>10</v>
       </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
+      <c r="H21" s="42">
+        <v>10</v>
+      </c>
+      <c r="I21" s="42">
+        <v>10</v>
+      </c>
+      <c r="J21" s="42">
+        <v>10</v>
+      </c>
+      <c r="K21" s="42">
+        <v>4</v>
+      </c>
+      <c r="L21" s="42">
+        <v>4</v>
+      </c>
+      <c r="M21" s="42">
+        <v>2</v>
+      </c>
+      <c r="N21" s="42">
+        <v>0</v>
+      </c>
+      <c r="O21" s="42">
+        <v>0</v>
+      </c>
+      <c r="P21" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="42">
+        <v>0</v>
+      </c>
+      <c r="R21" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:18" s="26" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B22" s="46"/>
       <c r="C22" s="47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D22" s="48"/>
       <c r="E22" s="40"/>
@@ -4783,16 +5875,16 @@
     </row>
     <row r="23" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B23" s="42">
         <v>1</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" s="45"/>
       <c r="F23" s="42">
@@ -4804,29 +5896,49 @@
       <c r="H23" s="42">
         <v>0</v>
       </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
+      <c r="I23" s="42">
+        <v>0</v>
+      </c>
+      <c r="J23" s="42">
+        <v>0</v>
+      </c>
+      <c r="K23" s="42">
+        <v>0</v>
+      </c>
+      <c r="L23" s="42">
+        <v>0</v>
+      </c>
+      <c r="M23" s="42">
+        <v>0</v>
+      </c>
+      <c r="N23" s="42">
+        <v>0</v>
+      </c>
+      <c r="O23" s="42">
+        <v>0</v>
+      </c>
+      <c r="P23" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="42">
+        <v>0</v>
+      </c>
+      <c r="R23" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B24" s="42">
         <v>2</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E24" s="45"/>
       <c r="F24" s="42">
@@ -4835,30 +5947,52 @@
       <c r="G24" s="42">
         <v>2</v>
       </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="H24" s="42">
+        <v>5</v>
+      </c>
+      <c r="I24" s="42">
+        <v>2</v>
+      </c>
+      <c r="J24" s="42">
+        <v>1</v>
+      </c>
+      <c r="K24" s="42">
+        <v>0</v>
+      </c>
+      <c r="L24" s="42">
+        <v>0</v>
+      </c>
+      <c r="M24" s="42">
+        <v>0</v>
+      </c>
+      <c r="N24" s="42">
+        <v>0</v>
+      </c>
+      <c r="O24" s="42">
+        <v>0</v>
+      </c>
+      <c r="P24" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="42">
+        <v>0</v>
+      </c>
+      <c r="R24" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25" s="42">
         <v>2</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E25" s="45"/>
       <c r="F25" s="42">
@@ -4867,21 +6001,43 @@
       <c r="G25" s="42">
         <v>2</v>
       </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
+      <c r="H25" s="42">
+        <v>4</v>
+      </c>
+      <c r="I25" s="42">
+        <v>3</v>
+      </c>
+      <c r="J25" s="42">
+        <v>2</v>
+      </c>
+      <c r="K25" s="42">
+        <v>1</v>
+      </c>
+      <c r="L25" s="42">
+        <v>0</v>
+      </c>
+      <c r="M25" s="42">
+        <v>0</v>
+      </c>
+      <c r="N25" s="42">
+        <v>0</v>
+      </c>
+      <c r="O25" s="42">
+        <v>0</v>
+      </c>
+      <c r="P25" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="42">
+        <v>0</v>
+      </c>
+      <c r="R25" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:18" s="26" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" s="46"/>
       <c r="C26" s="47"/>
@@ -4903,39 +6059,61 @@
     </row>
     <row r="27" spans="1:18" s="24" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27" s="49">
         <v>2</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="52"/>
+        <v>131</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="51"/>
       <c r="F27" s="49">
         <v>2</v>
       </c>
       <c r="G27" s="49">
         <v>2</v>
       </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
+      <c r="H27" s="49">
+        <v>2</v>
+      </c>
+      <c r="I27" s="49">
+        <v>2</v>
+      </c>
+      <c r="J27" s="49">
+        <v>2</v>
+      </c>
+      <c r="K27" s="49">
+        <v>2</v>
+      </c>
+      <c r="L27" s="49">
+        <v>2</v>
+      </c>
+      <c r="M27" s="49">
+        <v>2</v>
+      </c>
+      <c r="N27" s="49">
+        <v>2</v>
+      </c>
+      <c r="O27" s="49">
+        <v>1</v>
+      </c>
+      <c r="P27" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="42">
+        <v>0</v>
+      </c>
+      <c r="R27" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:18" s="26" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B28" s="46"/>
       <c r="C28" s="47"/>
@@ -4957,103 +6135,169 @@
     </row>
     <row r="29" spans="1:18" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" s="49">
         <v>1</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="52"/>
+        <v>131</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="51"/>
       <c r="F29" s="49">
         <v>1</v>
       </c>
       <c r="G29" s="49">
         <v>1</v>
       </c>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
+      <c r="H29" s="49">
+        <v>1</v>
+      </c>
+      <c r="I29" s="49">
+        <v>1</v>
+      </c>
+      <c r="J29" s="49">
+        <v>1</v>
+      </c>
+      <c r="K29" s="49">
+        <v>1</v>
+      </c>
+      <c r="L29" s="49">
+        <v>1</v>
+      </c>
+      <c r="M29" s="49">
+        <v>1</v>
+      </c>
+      <c r="N29" s="49">
+        <v>0</v>
+      </c>
+      <c r="O29" s="49">
+        <v>0</v>
+      </c>
+      <c r="P29" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="42">
+        <v>0</v>
+      </c>
+      <c r="R29" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:18" s="24" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B30" s="49">
         <v>2</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="52"/>
+        <v>132</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="51"/>
       <c r="F30" s="49">
         <v>2</v>
       </c>
       <c r="G30" s="49">
         <v>2</v>
       </c>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
+      <c r="H30" s="49">
+        <v>2</v>
+      </c>
+      <c r="I30" s="49">
+        <v>2</v>
+      </c>
+      <c r="J30" s="49">
+        <v>2</v>
+      </c>
+      <c r="K30" s="49">
+        <v>1</v>
+      </c>
+      <c r="L30" s="49">
+        <v>1</v>
+      </c>
+      <c r="M30" s="49">
+        <v>0</v>
+      </c>
+      <c r="N30" s="49">
+        <v>0</v>
+      </c>
+      <c r="O30" s="49">
+        <v>0</v>
+      </c>
+      <c r="P30" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="42">
+        <v>0</v>
+      </c>
+      <c r="R30" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:18" s="24" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B31" s="49">
         <v>2</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="52"/>
+        <v>132</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="51"/>
       <c r="F31" s="49">
         <v>2</v>
       </c>
       <c r="G31" s="49">
         <v>2</v>
       </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
+      <c r="H31" s="49">
+        <v>2</v>
+      </c>
+      <c r="I31" s="49">
+        <v>2</v>
+      </c>
+      <c r="J31" s="49">
+        <v>2</v>
+      </c>
+      <c r="K31" s="42">
+        <v>0</v>
+      </c>
+      <c r="L31" s="42">
+        <v>0</v>
+      </c>
+      <c r="M31" s="42">
+        <v>0</v>
+      </c>
+      <c r="N31" s="42">
+        <v>0</v>
+      </c>
+      <c r="O31" s="42">
+        <v>0</v>
+      </c>
+      <c r="P31" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="42">
+        <v>0</v>
+      </c>
+      <c r="R31" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:18" s="26" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B32" s="46"/>
       <c r="C32" s="47"/>
@@ -5075,48 +6319,70 @@
     </row>
     <row r="33" spans="1:18" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="49">
         <v>10</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="52"/>
+        <v>115</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="51"/>
       <c r="F33" s="49">
         <v>10</v>
       </c>
       <c r="G33" s="49">
         <v>8</v>
       </c>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
+      <c r="H33" s="49">
+        <v>8</v>
+      </c>
+      <c r="I33" s="49">
+        <v>8</v>
+      </c>
+      <c r="J33" s="49">
+        <v>8</v>
+      </c>
+      <c r="K33" s="49">
+        <v>4</v>
+      </c>
+      <c r="L33" s="49">
+        <v>4</v>
+      </c>
+      <c r="M33" s="49">
+        <v>4</v>
+      </c>
+      <c r="N33" s="49">
+        <v>2</v>
+      </c>
+      <c r="O33" s="49">
+        <v>1</v>
+      </c>
+      <c r="P33" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="42">
+        <v>0</v>
+      </c>
+      <c r="R33" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B34" s="42">
         <v>10</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E34" s="45"/>
       <c r="F34" s="42">
@@ -5125,21 +6391,43 @@
       <c r="G34" s="42">
         <v>10</v>
       </c>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
+      <c r="H34" s="42">
+        <v>10</v>
+      </c>
+      <c r="I34" s="42">
+        <v>7</v>
+      </c>
+      <c r="J34" s="42">
+        <v>5</v>
+      </c>
+      <c r="K34" s="42">
+        <v>5</v>
+      </c>
+      <c r="L34" s="42">
+        <v>3</v>
+      </c>
+      <c r="M34" s="42">
+        <v>1</v>
+      </c>
+      <c r="N34" s="42">
+        <v>3</v>
+      </c>
+      <c r="O34" s="42">
+        <v>0</v>
+      </c>
+      <c r="P34" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="42">
+        <v>0</v>
+      </c>
+      <c r="R34" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -5161,16 +6449,16 @@
     </row>
     <row r="36" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B36" s="42">
         <v>5</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E36" s="45"/>
       <c r="F36" s="42">
@@ -5179,21 +6467,43 @@
       <c r="G36" s="42">
         <v>5</v>
       </c>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
+      <c r="H36" s="42">
+        <v>4</v>
+      </c>
+      <c r="I36" s="42">
+        <v>4</v>
+      </c>
+      <c r="J36" s="42">
+        <v>3</v>
+      </c>
+      <c r="K36" s="42">
+        <v>2</v>
+      </c>
+      <c r="L36" s="42">
+        <v>1</v>
+      </c>
+      <c r="M36" s="42">
+        <v>0</v>
+      </c>
+      <c r="N36" s="42">
+        <v>0</v>
+      </c>
+      <c r="O36" s="42">
+        <v>0</v>
+      </c>
+      <c r="P36" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="42">
+        <v>0</v>
+      </c>
+      <c r="R36" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
@@ -5214,17 +6524,17 @@
       <c r="R37" s="41"/>
     </row>
     <row r="38" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="53" t="s">
-        <v>85</v>
+      <c r="A38" s="52" t="s">
+        <v>83</v>
       </c>
       <c r="B38" s="42">
         <v>10</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="44" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E38" s="45"/>
       <c r="F38" s="42">
@@ -5233,20 +6543,42 @@
       <c r="G38" s="42">
         <v>9</v>
       </c>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="42"/>
+      <c r="H38" s="42">
+        <v>9</v>
+      </c>
+      <c r="I38" s="42">
+        <v>7</v>
+      </c>
+      <c r="J38" s="42">
+        <v>6</v>
+      </c>
+      <c r="K38" s="42">
+        <v>4</v>
+      </c>
+      <c r="L38" s="42">
+        <v>4</v>
+      </c>
+      <c r="M38" s="42">
+        <v>5</v>
+      </c>
+      <c r="N38" s="42">
+        <v>4</v>
+      </c>
+      <c r="O38" s="42">
+        <v>2</v>
+      </c>
+      <c r="P38" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="42">
+        <v>0</v>
+      </c>
+      <c r="R38" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="42"/>
       <c r="C39" s="43"/>
       <c r="D39" s="44"/>
@@ -5266,62 +6598,62 @@
       <c r="R39" s="42"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" s="56">
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="55">
         <f>SUM(F9:F39)</f>
         <v>129</v>
       </c>
-      <c r="G40" s="56">
+      <c r="G40" s="55">
         <f t="shared" ref="G40:L40" si="3">SUM(G9:G39)</f>
         <v>115</v>
       </c>
-      <c r="H40" s="56">
+      <c r="H40" s="55">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="I40" s="56">
+        <v>117</v>
+      </c>
+      <c r="I40" s="55">
         <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="J40" s="56">
+        <v>102</v>
+      </c>
+      <c r="J40" s="55">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="K40" s="56">
+        <v>75</v>
+      </c>
+      <c r="K40" s="55">
         <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="L40" s="56">
+        <v>72</v>
+      </c>
+      <c r="L40" s="55">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="M40" s="56">
+        <v>70</v>
+      </c>
+      <c r="M40" s="55">
         <f t="shared" ref="M40" si="4">SUM(M9:M39)</f>
-        <v>46</v>
-      </c>
-      <c r="N40" s="56">
+        <v>61</v>
+      </c>
+      <c r="N40" s="55">
         <f t="shared" ref="N40" si="5">SUM(N9:N39)</f>
-        <v>41</v>
-      </c>
-      <c r="O40" s="56">
+        <v>52</v>
+      </c>
+      <c r="O40" s="55">
         <f t="shared" ref="O40" si="6">SUM(O9:O39)</f>
-        <v>0</v>
-      </c>
-      <c r="P40" s="56">
+        <v>22</v>
+      </c>
+      <c r="P40" s="55">
         <f t="shared" ref="P40" si="7">SUM(P9:P39)</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="56">
+        <v>7</v>
+      </c>
+      <c r="Q40" s="55">
         <f t="shared" ref="Q40" si="8">SUM(Q9:Q39)</f>
         <v>0</v>
       </c>
-      <c r="R40" s="56">
+      <c r="R40" s="55">
         <f t="shared" ref="R40" si="9">SUM(R9:R39)</f>
         <v>0</v>
       </c>
@@ -5330,9 +6662,9 @@
       <c r="A41" s="33"/>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
-      <c r="D41" s="57"/>
+      <c r="D41" s="56"/>
       <c r="E41" s="44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F41" s="44"/>
       <c r="G41" s="44">
@@ -5341,43 +6673,43 @@
       </c>
       <c r="H41" s="44">
         <f t="shared" ref="H41:P41" si="10">G40-H40</f>
-        <v>55</v>
+        <v>-2</v>
       </c>
       <c r="I41" s="44">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J41" s="44">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K41" s="44">
         <f t="shared" si="10"/>
-        <v>-18</v>
+        <v>3</v>
       </c>
       <c r="L41" s="44">
         <f t="shared" si="10"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M41" s="44">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N41" s="44">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O41" s="44">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="P41" s="44">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q41" s="44">
         <f t="shared" ref="Q41" si="11">P40-Q40</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R41" s="44">
         <f t="shared" ref="R41" si="12">Q40-R40</f>
@@ -5385,33 +6717,33 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="58" t="s">
-        <v>88</v>
+      <c r="A42" s="57" t="s">
+        <v>86</v>
       </c>
       <c r="B42" s="5">
         <f>SUM(B9:B40)</f>
         <v>129</v>
       </c>
-      <c r="C42" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="60"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
+      <c r="C42" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="59"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
     </row>
     <row r="43" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="54"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="53"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
@@ -5426,11 +6758,11 @@
       <c r="O43" s="32"/>
     </row>
     <row r="44" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="63" t="s">
-        <v>90</v>
+      <c r="A44" s="62" t="s">
+        <v>88</v>
       </c>
       <c r="B44" s="44"/>
-      <c r="C44" s="60"/>
+      <c r="C44" s="59"/>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
@@ -5446,13 +6778,13 @@
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B45" s="44">
         <f>COUNTIF($D$9:$D$40,"Not Started")</f>
-        <v>3</v>
-      </c>
-      <c r="C45" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="59"/>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
@@ -5468,13 +6800,13 @@
     </row>
     <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B46" s="44">
         <f>COUNTIF($D$9:$D$40,"In Progress")</f>
-        <v>7</v>
-      </c>
-      <c r="C46" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="C46" s="59"/>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
@@ -5490,13 +6822,13 @@
     </row>
     <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B47" s="44">
         <f>COUNTIF($D$9:$D$40,"Complete")</f>
-        <v>13</v>
-      </c>
-      <c r="C47" s="60"/>
+        <v>23</v>
+      </c>
+      <c r="C47" s="59"/>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
@@ -5511,8 +6843,8 @@
       <c r="O47" s="32"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="32"/>
       <c r="D48" s="32"/>
       <c r="E48" s="32"/>
@@ -5537,7 +6869,7 @@
     <mergeCell ref="E4:E6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D38:D39 D36 D9:D34">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D36 D9:D34 D38:D39">
       <formula1>"Not Started,In Progress,Complete,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5638,6 +6970,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="79"/>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="79"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -5653,133 +7008,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="67"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="67"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
-      <c r="E3" s="67"/>
+      <c r="E3" s="66"/>
     </row>
     <row r="4" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="67"/>
+      <c r="E4" s="66"/>
     </row>
     <row r="5" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="67"/>
+      <c r="E5" s="66"/>
     </row>
     <row r="6" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="67"/>
+      <c r="E6" s="66"/>
     </row>
     <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="67"/>
+      <c r="E7" s="66"/>
     </row>
     <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="67"/>
+      <c r="E8" s="66"/>
     </row>
     <row r="9" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="67"/>
+      <c r="E9" s="66"/>
     </row>
     <row r="10" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
-      <c r="E10" s="67"/>
+      <c r="E10" s="66"/>
     </row>
     <row r="11" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="67"/>
+      <c r="E11" s="66"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="68" t="s">
-        <v>109</v>
+      <c r="A12" s="67" t="s">
+        <v>107</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -5951,7 +7306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -5968,8 +7323,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
-        <v>110</v>
+      <c r="A1" s="68" t="s">
+        <v>108</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -5985,7 +7340,7 @@
     </row>
     <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="22"/>
@@ -5993,7 +7348,7 @@
     </row>
     <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="22"/>
@@ -6001,7 +7356,7 @@
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -6009,7 +7364,7 @@
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -6017,7 +7372,7 @@
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -6025,7 +7380,7 @@
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -6033,7 +7388,7 @@
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -6041,7 +7396,7 @@
     </row>
     <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -6049,7 +7404,7 @@
     </row>
     <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -6065,7 +7420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A97"/>
   <sheetViews>
@@ -6663,7 +8018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -6677,10 +8032,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="71">
+      <c r="A1" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="70">
         <v>41899</v>
       </c>
       <c r="C1" s="32"/>
@@ -6697,48 +8052,48 @@
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="60"/>
+      <c r="A3" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="73"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="73"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="73"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
     </row>
@@ -6747,58 +8102,58 @@
         <v>52</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="73"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="73"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="73"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="73"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="73" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
+      <c r="A11" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
